--- a/changes/shotgun-stocks.xlsx
+++ b/changes/shotgun-stocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD3AE5E-B9AA-4451-ABFF-9E0C0BE3A65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6602CF-6331-4B9E-AF49-B45A0674BCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>new</t>
   </si>
@@ -129,12 +129,6 @@
   </si>
   <si>
     <t>Fightlite SCR Rubber Buttpad</t>
-  </si>
-  <si>
-    <t>Remington870</t>
-  </si>
-  <si>
-    <t>Remington 870 Express</t>
   </si>
   <si>
     <t>agr_870_protection_cap</t>
@@ -1075,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,75 +1180,31 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="1">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>90</v>
-      </c>
-      <c r="F3" s="1">
-        <v>90</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="K3" s="1">
-        <v>5</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1">
-        <v>20000</v>
-      </c>
+      <c r="M3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="1">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="R3" s="1">
-        <v>99</v>
-      </c>
-      <c r="S3" s="1">
-        <v>99</v>
-      </c>
-      <c r="T3" s="1">
-        <v>1</v>
-      </c>
-      <c r="U3" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="V3" s="1">
-        <v>1</v>
-      </c>
-      <c r="W3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="X3" s="1">
-        <v>5</v>
-      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="1">
-        <v>20000</v>
-      </c>
+      <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -1395,7 +1345,7 @@
         <v>-2</v>
       </c>
       <c r="Q7">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="R7">
         <v>2</v>
@@ -1408,7 +1358,7 @@
       </c>
       <c r="AA7">
         <f t="shared" si="2"/>
-        <v>-7.2</v>
+        <v>-8.1999999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -1451,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="R9">
         <v>-3</v>
@@ -1464,15 +1414,15 @@
       </c>
       <c r="AA9">
         <f t="shared" si="2"/>
-        <v>2.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1509,10 +1459,10 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>-4</v>
@@ -1779,10 +1729,10 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18">
         <v>0.5</v>
@@ -1813,10 +1763,10 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1847,10 +1797,10 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20">
         <v>1.5</v>
@@ -1881,10 +1831,10 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -1925,7 +1875,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -1968,7 +1918,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24">
         <v>18</v>
@@ -2017,7 +1967,7 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26">
         <f>C5</f>
@@ -2122,7 +2072,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27">
         <f>C6</f>
@@ -2227,7 +2177,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <f>C7+C23+C24</f>
@@ -2287,7 +2237,7 @@
       </c>
       <c r="Q28">
         <f t="shared" si="5"/>
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="R28">
         <f t="shared" si="5"/>
@@ -2327,12 +2277,12 @@
       </c>
       <c r="AA28">
         <f t="shared" si="5"/>
-        <v>27.599999999999998</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29">
         <f>C9+C10</f>
@@ -2392,7 +2342,7 @@
       </c>
       <c r="Q29">
         <f t="shared" si="6"/>
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="R29">
         <f t="shared" si="6"/>
@@ -2432,12 +2382,12 @@
       </c>
       <c r="AA29">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>6.3999999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C30">
         <f>C9+C11+C24</f>
@@ -2497,7 +2447,7 @@
       </c>
       <c r="Q30">
         <f t="shared" si="7"/>
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="R30">
         <f t="shared" si="7"/>
@@ -2537,12 +2487,12 @@
       </c>
       <c r="AA30">
         <f t="shared" si="7"/>
-        <v>27.6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C31">
         <f>C13</f>
@@ -2647,7 +2597,7 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C32">
         <f>C14+C15</f>
@@ -2752,7 +2702,7 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C33">
         <f>C17+C21</f>
@@ -2857,15 +2807,15 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -2908,10 +2858,10 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -2954,10 +2904,10 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C40">
         <v>-2</v>
@@ -3000,10 +2950,10 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C41">
         <v>12</v>
